--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
@@ -781,7 +781,9 @@
       <x:c r="B6" s="10" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C6" s="11" t="s"/>
+      <x:c r="C6" s="11" t="n">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="D6" s="11" t="s"/>
       <x:c r="E6" s="11" t="s"/>
       <x:c r="F6" s="11" t="s"/>

--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="3">
+  <x:numFmts count="4">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <x:numFmt numFmtId="166" formatCode="$ #,##0.00"/>
+    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="166" formatCode="#,0.0"/>
+    <x:numFmt numFmtId="167" formatCode="$ #,0.00"/>
   </x:numFmts>
   <x:fonts count="5">
     <x:font>
@@ -310,10 +311,10 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -322,7 +323,7 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -331,7 +332,7 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="4" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -356,11 +357,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -372,7 +373,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -384,7 +385,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents.xlsx
@@ -692,7 +692,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="30.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="7" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.670625" style="0" customWidth="1"/>
+    <x:col min="4" max="7" width="9.140625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="20.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
